--- a/Shopper_2d/CSV/shop_item.xlsx
+++ b/Shopper_2d/CSV/shop_item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GodotProjects\Shopper_2d\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BF6BD4-8451-458C-A291-F0F6DCFD94A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82309A85-5F1D-4AAD-8D46-29A471D54E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
+    <workbookView xWindow="25490" yWindow="3460" windowWidth="19420" windowHeight="10560" xr2:uid="{6613D835-19EA-40EE-98A1-1D2837994A45}"/>
   </bookViews>
   <sheets>
     <sheet name="shop_item" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,27 @@
   </si>
   <si>
     <t>unlocked</t>
+  </si>
+  <si>
+    <t>sprite_path</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>max_amount</t>
+  </si>
+  <si>
+    <t>res://Asset/ShopItem/Bread.png</t>
+  </si>
+  <si>
+    <t>res://Asset/ShopItem/flask.png</t>
+  </si>
+  <si>
+    <t>res://Asset/ShopItem/test1.png</t>
+  </si>
+  <si>
+    <t>res://Asset/ShopItem/test2.png</t>
   </si>
 </sst>
 </file>
@@ -937,7 +958,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +966,7 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
@@ -973,6 +994,15 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -996,6 +1026,15 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -1022,6 +1061,15 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1047,6 +1095,15 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1070,6 +1127,15 @@
         <v>98</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
